--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-1, Ф-9-2, Р-9-1-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-1, Ф-9-2, Р-9-1-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-9-1, Ф-9-2, Р-9-1-2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
   <si>
     <t>Вторник</t>
   </si>
@@ -38,12 +38,18 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
     <t>Хоронеко Иван Павлович</t>
   </si>
   <si>
+    <t>Урок для практических занятий (классрум на время)</t>
+  </si>
+  <si>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Инфоорматика</t>
+  </si>
+  <si>
     <t>химия</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
     <t>Мянник</t>
   </si>
   <si>
+    <t>Zoom</t>
+  </si>
+  <si>
     <t>физика</t>
   </si>
   <si>
@@ -80,31 +89,49 @@
     <t>Смолянова</t>
   </si>
   <si>
+    <t>информатика</t>
+  </si>
+  <si>
+    <t>Р-9-1-2</t>
+  </si>
+  <si>
+    <t>Дятлов</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
     <t>Английский</t>
   </si>
   <si>
-    <t>см.таблицу после субботы</t>
-  </si>
-  <si>
-    <t>информатика</t>
-  </si>
-  <si>
-    <t>Р-9-1-2</t>
-  </si>
-  <si>
-    <t>Дятлов</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
-  <si>
-    <t>ОКНО</t>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Аксенова</t>
+  </si>
+  <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>Гордиенко</t>
+  </si>
+  <si>
+    <t>обществознание</t>
+  </si>
+  <si>
+    <t>Жигулин</t>
   </si>
   <si>
     <t>геометрия</t>
@@ -113,30 +140,6 @@
     <t>Булатова</t>
   </si>
   <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>География</t>
-  </si>
-  <si>
-    <t>алгебра</t>
-  </si>
-  <si>
-    <t>Гордиенко</t>
-  </si>
-  <si>
-    <t>обществознание</t>
-  </si>
-  <si>
-    <t>Жигулин</t>
-  </si>
-  <si>
-    <t>Гордиенко/Булатова</t>
-  </si>
-  <si>
-    <t>403/306</t>
-  </si>
-  <si>
     <t>Пятница</t>
   </si>
   <si>
@@ -146,10 +149,10 @@
     <t>Перхулова</t>
   </si>
   <si>
-    <t>литература</t>
-  </si>
-  <si>
     <t>Суббота</t>
+  </si>
+  <si>
+    <t>Информатика</t>
   </si>
   <si>
     <t>история</t>
@@ -165,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +178,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +223,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -257,6 +296,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -279,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -294,14 +348,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -317,43 +389,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9077325" cy="2781300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12611100"/>
-          <a:ext cx="9077325" cy="2781300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,36 +655,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -658,7 +693,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>1</v>
@@ -669,180 +704,171 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>1</v>
@@ -853,167 +879,149 @@
       <c r="D16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="7">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="7">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="7">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>8</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>9</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>1</v>
@@ -1024,26 +1032,25 @@
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>1</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>2</v>
       </c>
@@ -1051,45 +1058,47 @@
         <v>30</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="7">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="7">
-        <v>204</v>
+        <v>35</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,16 +1106,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,68 +1123,44 @@
         <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>7</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="7">
-        <v>308</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>8</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="7">
-        <v>308</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>9</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="7">
-        <v>306</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1185,7 +1170,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1203,25 +1188,23 @@
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>1</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="7">
-        <v>201</v>
+        <v>33</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,16 +1212,16 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="7">
-        <v>201</v>
+        <v>33</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,16 +1229,16 @@
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="7">
-        <v>305</v>
+        <v>17</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,57 +1246,47 @@
         <v>4</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="7">
-        <v>204</v>
+        <v>40</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>6</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="7">
-        <v>204</v>
-      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>7</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -1322,37 +1295,27 @@
       <c r="A48" s="7">
         <v>8</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>9</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="7">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +1324,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>1</v>
@@ -1372,109 +1335,102 @@
       <c r="D52" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>1</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="7">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>4</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="7">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>5</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="7">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>6</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>7</v>
       </c>
@@ -1483,7 +1439,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>8</v>
       </c>
@@ -1492,7 +1448,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>9</v>
       </c>
@@ -1501,17 +1457,17 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3241,18 +3197,20 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D44:E44"/>
+  <mergeCells count="11">
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A39:E39"/>
     <mergeCell ref="A51:E51"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-1, Ф-9-2, Р-9-1-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-1, Ф-9-2, Р-9-1-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="М-9-1, Ф-9-2, Р-9-1-2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>Вторник</t>
   </si>
@@ -658,7 +658,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B35" sqref="B35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>5</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>6</v>
       </c>
@@ -1135,16 +1135,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>7</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>8</v>
       </c>
@@ -1153,7 +1160,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>9</v>
       </c>
@@ -1162,13 +1169,13 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1177,7 +1184,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>1</v>
@@ -1190,7 +1197,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -1207,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>2</v>
       </c>
@@ -1224,7 +1231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>3</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>4</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>5</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>6</v>
       </c>
@@ -1282,7 +1289,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>7</v>
       </c>
@@ -1291,7 +1298,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>8</v>
       </c>
@@ -3197,9 +3204,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="B53:D53"/>

--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-1, Ф-9-2, Р-9-1-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-1, Ф-9-2, Р-9-1-2.xlsx
@@ -178,25 +178,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -204,14 +200,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,17 +218,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFF4B084"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -296,21 +290,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -333,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -348,32 +327,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -657,20 +627,19 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:F35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -708,21 +677,21 @@
       <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -739,7 +708,7 @@
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -756,7 +725,7 @@
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -773,7 +742,7 @@
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -790,7 +759,7 @@
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -798,15 +767,15 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -823,7 +792,7 @@
       <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -840,7 +809,7 @@
       <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -860,13 +829,13 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -894,7 +863,7 @@
       <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -909,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -917,15 +886,15 @@
       <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -933,15 +902,15 @@
       <c r="A20" s="7">
         <v>4</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -958,7 +927,7 @@
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -975,7 +944,7 @@
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -986,7 +955,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1038,15 +1007,15 @@
       <c r="A29" s="7">
         <v>1</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1063,7 +1032,7 @@
       <c r="D30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1080,7 +1049,7 @@
       <c r="D31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1097,7 +1066,7 @@
       <c r="D32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1114,7 +1083,7 @@
       <c r="D33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1131,7 +1100,7 @@
       <c r="D34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1139,15 +1108,15 @@
       <c r="A35" s="7">
         <v>7</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1210,7 +1179,7 @@
       <c r="D41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1227,7 +1196,7 @@
       <c r="D42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1244,7 +1213,7 @@
       <c r="D43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1259,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1276,7 +1245,7 @@
       <c r="D45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1348,15 +1317,15 @@
       <c r="A53" s="7">
         <v>1</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1373,7 +1342,7 @@
       <c r="D54" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1390,7 +1359,7 @@
       <c r="D55" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1407,7 +1376,7 @@
       <c r="D56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1424,7 +1393,7 @@
       <c r="D57" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>11</v>
       </c>
     </row>
